--- a/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_llama_wikidata_dbpedia_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_llama_wikidata_dbpedia_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What country is Mount Everest in?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Nepal', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['37m', '16.68 m', '100.6 m', '', '72m', '62m', 'Tower I:', 'Tower II:', '155 m', '~', '48.94 m', '200 m', '42 m', '145m', 'approx.', '72 m', '52.3m', '92.08 m', 'South Tower:', '34 m', '115m', '103 m', '64m', '69.82 m', '135.7 m', '106m', '14 m', 'About', '22.93m', '- (Athens Tower 1)', '- (Athens Tower 2)', '116m', 'Seven stories', '50 m', '- Baku Tower', '149 m', '163 m', '95 m', '3.25m', 'Roof –', 'tall', '71 m', 'approximately', '120m', '105 m', '91 m', '48.2 m', '97 m', '7m', 'At least', '15 m', 'Single storey', '30.5m', 'Two storey', 'Up to', '60 m', '108 m', 'Up to', '103.4 m', '69.5 m', '91.5 m', '61 m', '160m', 'above sea level', '170m', '115m', '76m', '117m', '16 m', '150m', '233 m', '53.30 m', '56m', '45m', '3.5m', '35 m', 'top of dome', '30 m', '64.85 m', '68.5 m', '78.3 m', '57 m', '42m', 'Bell tower', '50 m', '61 m', '69m', '45 m', 'City House', 'The Olympic', "555'", 'excl. weather vane', 'incl. weather vane.', 'Central tower:', "40'", '209 m', ',', '55m', ', up to', '228 m', '29m', '71.00m', '32 m', '85m', '20 m', 'Up to', '85m', '- DC Tower 1', '- DC Tower 2', 'four stories', '85 m', 'Two storeys', 'Two stories', '10.5 m', 'Terminal 3 - Concourse A,', 'Terminal 3 - Concourse B,', 'Tower 1:', 'Tower 2:', 'Tower 3:', 'Tower 4:', '184 m', '47 m', 'Up to', '69m', '110 m', '66 m', '61m', '17.59 m', '50m', '40 m', '518 m', '46.28m', '52 m', 'Tower:', '36 m', 'Complex: 504 ft', 'Tower I:', 'Tower II:', '35m', 'approx. 20 ft', '', '37m', '67 m', '51 m', '42 m', 'Four stories', '56 m', '35 m', '150 m', '29 m', 'Eight stories', '47 m', '29.87m', '36 m', '81.5 m', '275 m', '401 m', '5.2m', 'Three stories', '125 m', '18.5 m', '14.6 m', '41.45m', '279.2 m', 'three-and-half stories', '40 m', '65m', '45.00m', 'Not released', 'Tower I:', 'Tower II:', 'three stories', '700 m', 'Up to', 'Chapel dome:', '102m', '102 m', 'Top floor:', 'Total:', '150 m', '256 m', '31 m', '- Illa de la Llum 1', '- Illa de la Llum 2', '- Illa del Mar 1', '- Illa del Mar 2', '103m', 'est.', '26m', 'Tower A:', 'Tower B:', 'Tower C:', '48m', '52 m', ';', '16.4 m', '', 'Tower One:', 'Tower Three:', 'Tower Two:', '52 m', 'Original height: , Current height:', 'North Tower: ;\nSouth Tower:', '153.24 m', 'Kastor:', 'Pollux:', '176 m', 'c. 30 metres', 'Exterior:', 'Interior:', '24m', '33 m', 'Five stories', 'roof', 'height', '53 m', 'North Tower :', 'South Tower :', 'AGL', 'AOD', '46 m', 'internal height', '244.30 m', 'mast 1 :  / mast 2 :', '28 m', '60 m', 'From lobby to roof:', 'Tower A', 'Tower B', 'Tower C', '84.86m', 'about', '65 m', '10m', '95 m', '17.1m', '1m', 'Tower I:', 'Tower: II', 'Clock tower –', 'Up to', '155 m', '135.33 m', 'Thee stories', 'Three stories', 'Approximately', 'Two storeys', '16 m', '140 m', 'c.', '54 m', ',', '17 m', 'Approx.', '23m', '33 m', '46.28 m', '46.28m', 'Both wings', 'Central tower', '137 m', '+', '50 m', '110 m', '16.5 m', '220m', '45m', 'Actual', 'Apex:', 'Ceyane:', 'East:', 'West:', '75 m', '北緯34度10分58秒 東経133度4分51秒', 'in the vault of the nave', '111m', '44.20m', 'Tower 1:', 'Tower 2:', '5.50 m', '30 m', '189.9 m', '205 m', ', ,', '117 m', '65 m', '52 m', '96.3 m', '18.29m', '25 m', '10m', '75 m', '', 'JW Marriott North Tower', 'JW Marriott South Tower', 'Stadium–Chinatown', 'The Douglas', 'Yaletown–Roundhouse', '92m', 'Up to', '34 m', '56.64 m', '62.5 m', '44m', '~', '55 m', '85m', '36 m', '24m', '27.5m', '110 m', '46 m', '21 m', '59 m', '74 m', '68 m', '60m', '70m', '', 'Tower I:', 'Tower II:', '22 m', '16 m', '35 m', 'Tower of 75 feet', '51m', '10m', '160 m', '212 m', '178 m', '16 m', '140 m', '945 m', '9.0 m', '83 m', 'Cross on the center cupola rests  above the ground', '55m', '16.5 m', 'About  the campanile', 'five storey', '60 m', '36.49 m', '17.5 m', '14 m', '14 m', '48 m', '100 m', 'to the tip of the spire', '81m', '151.6 m', '177 m', 'to top of bell towers', '32 m', 'varies from one to twelve storeys', '65 m', '155m', '140m', '27.4 m', '122 m', '68.5m', '34m', '52m', 'Tower - 51 feet', '4m', 'Five storeys high', '77 m', 'Spire  until removed', 'Roof', 'Tower', 'Spire', '58 m', '60m', '54 m', 'Cathedral:', 'Tower:', '', '31 m', '30m', '62 m', '18 m', 'Built on 194 meters high hilltop', '22.5 m', '22.5 m', 'Tower 1:', 'Tower 2:', '58.00m', 'North Mast: ,\nSouth Mast:', '17.9 m', '&gt;', '37 m', 'roof,  spire', 'Up to  ft', '~', 'East Tower:', 'West Tower:', '61m', '242 m', '132 m', '100 m', '52 m', '21m', ',\n,', '268 m', '90m', '107 m', '46m', ',', 'with pantograph:', ';', 'with pantograph:', '117 m', '71 m', '- Torre Europa 3, 4, 5', '220 m', '187 m', 'See', '77 m', '303.6 m', '33.2 m', "90'", '160.32 m', '', '26 m', '305m', '101.90 m', '142.92 m', 'Complex: 561 feet', 'US Bank Plaza I:', 'US Bank Plaza:', '6 m', 'roof', 'Three stories', '94 m', '40 m', '30 m', '4m', 'Three stories', '76m', '/', '82m', '110.64 m', 'Antenna:', 'Roof:', 'North Tower:', 'South Tower:', '41m', '119 m', '92m', '- Hotel WTC Almeda Park', '192 m', '63 m', '60m', 'and']</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,57 +498,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Jiran', '1']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['44.8']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['44.8', '44.8056', '38']</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Show me all basketball players that are higher than 2 meters.</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/911_(wrestler)__911__1', 'http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aafke_Hament', 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Chapman', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_Keating', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_Russell', 'http://dbpedia.org/resource/Aaron_Sandilands', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Ba__Abdoul_Ba__1', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdoul_Razak_Issoufou', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Abyss_(wrestler)', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Beard', 'http://dbpedia.org/resource/Adam_Bedell', 'http://dbpedia.org/resource/Adam_Byrnes', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Coleman', 'http://dbpedia.org/resource/Adam_Edström', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Jones_(rugby_union,_born_1980)', 'http://dbpedia.org/resource/Adam_Kaminski', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Lawton', 'http://dbpedia.org/resource/Adam_Michalski', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Sandurski', 'http://dbpedia.org/resource/Adam_Simac', 'http://dbpedia.org/resource/Adam_Smolarczyk', 'http://dbpedia.org/resource/Adam_White_(volleyball)', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adam_Zajíček', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adis_Lagumdzija', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adolf_Malan', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adré_Smith', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Deluca', 'http://dbpedia.org/resource/Adrian_Granat', 'http://dbpedia.org/resource/Adrian_Heidrich', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrian_Radu_Gontariu', 'http://dbpedia.org/resource/Adrian_Rolko', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Adriano_da_Matta', 'http://dbpedia.org/resource/Adrien_Dipanda', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Afeez_Agoro', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahmed_Kotb', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Aidan_Kearney_(rugby_union)', 'http://dbpedia.org/resource/Aidan_Zingel', 'http://dbpedia.org/resource/Aimone_Alletti', 'http://dbpedia.org/resource/Aitor_Etxeberría', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akeem_Thomas', 'http://dbpedia.org/resource/Akihiro_Yamauchi', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tomaini', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Estève', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Karaev', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Souza', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Alastair_Kellock', 'http://dbpedia.org/resource/Albano_Olivetti', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Albert_van_den_Berg', 'http://dbpedia.org/resource/Alberto_Bellini', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alberto_Val', 'http://dbpedia.org/resource/Aldin_Spahović', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alejandro_Spajić', 'http://dbpedia.org/resource/Alejandro_Vigil', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksa_Brđović', 'http://dbpedia.org/resource/Aleksandar_Atanasijević', 'http://dbpedia.org/resource/Aleksandar_Bundalo', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Minić', 'http://dbpedia.org/resource/Aleksandar_Nikolov_(volleyball)', 'http://dbpedia.org/resource/Aleksandar_Okolić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Vukotić', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Bashminov', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksandr_Chernoivanov', 'http://dbpedia.org/resource/Aleksandr_Petrov_(basketball)', 'http://dbpedia.org/resource/Aleksandr_Volkov_(volleyball)', 'http://dbpedia.org/resource/Aleksandra_Delcheva', 'http://dbpedia.org/resource/Aleksei_Krasnokutskiy', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Aleksey_Kuleshov__Aleksey_Kuleshov__1', 'http://dbpedia.org/resource/Aleksey_Ostapenko', 'http://dbpedia.org/resource/Aleksey_Pluzhnikov', 'http://dbpedia.org/resource/Alen_Pajenk', 'http://dbpedia.org/resource/Alen_Šket', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Coppola', 'http://dbpedia.org/resource/Alessandro_Fei_(volleyball)', 'http://dbpedia.org/resource/Alessandro_Michieletto', 'http://dbpedia.org/resource/Alessandro_Miressi', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_(footballer,_born_1989)', 'http://dbpedia.org/resource/Alex_Brown_(rugby_union,_born_1979)', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Coles_(rugby_union)', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Ishchenko', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Pearce_(Australian_footballer)', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Toolis', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alex_Wolf_(water_polo)', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Dimitrenko', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Gutsalyuk', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Mcmullin', 'http://dbpedia.org/resource/Alexander_Moon', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Popov_(swimmer)', 'http://dbpedia.org/resource/Alexander_Popp', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Tatarintsev', 'http://dbpedia.org/resource/Alexander_Ustinov', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Volkov_(fighter)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandre_Cavalcanti', 'http://dbpedia.org/resource/Alexandre_Ferreira_(volleyball)', 'http://dbpedia.org/resource/Alexandre_Flanquart', 'http://dbpedia.org/resource/Alexandre_Gauthier', 'http://dbpedia.org/resource/Alexandros_Paschalakis', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexandru_Șimicu', 'http://dbpedia.org/resource/Alexei_Komarov', 'http://dbpedia.org/resource/Alexey_Ashapatov', 'http://dbpedia.org/resource/Alexey_Nalobin', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Rubalcaba', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Alfredo_Quintana', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Keykhosravi', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Ali_Williams', 'http://dbpedia.org/resource/Aliaksandr_Bury', 'http://dbpedia.org/resource/Aliaksei_Shynkel', 'http://dbpedia.org/resource/Aliasghar_Mojarad', 'http://dbpedia.org/resource/Alida_Marcovici', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Aliki_Fakate', 'http://dbpedia.org/resource/Alina_Pralea', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alison_Cerutti', 'http://dbpedia.org/resource/Alistair_Hargreaves', 'http://dbpedia.org/resource/Alister_Campbell_(rugby_union,_born_1979)__Alister_Campbell__1', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Alla_Teterina', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Allyssa_DeHaan', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amaury_Leveaux', 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Ameran_Bitsadze', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Aminu_Timberlake', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Ghafour', 'http://dbpedia.org/resource/Amir_Hossein_Toukhteh', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amirhossein_Esfandiar', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Brown_(volleyball)', 'http://dbpedia.org/resource/Andre_Carter_II', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/André_the_Giant', 'http://dbpedia.org/resource/André_Willms', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Galliani', 'http://dbpedia.org/resource/Andrea_Gardini', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andrea_Sala_(volleyball)', 'http://dbpedia.org/resource/Andrea_Zambonin', 'http://dbpedia.org/resource/Andreas_Andreadis', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Holst_Jensen', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Siljeström', 'http://dbpedia.org/resource/Andreas_Takvam', 'http://dbpedia.org/resource/Andreas_Theodoridis', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andreas-Dimitrios_Frangos', 'http://dbpedia.org/resource/Andrei_Bărbulescu', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrei_Mahu', 'http://dbpedia.org/resource/Andrei_Mikhnevich', 'http://dbpedia.org/resource/Andrei_Ostrikov', 'http://dbpedia.org/resource/Andrej_Kravárik', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrej_Šustr', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Browne_(footballer,_born_1990)', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_Byrnes', 'http://dbpedia.org/resource/Andrew_Davidson_(rugby_union)', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Donlin', 'http://dbpedia.org/resource/Andrew_Evans_(rugby_union)', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Kitchener', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Phillips_(footballer,_born_1991)', 'http://dbpedia.org/resource/Andrew_Richardson_(tennis)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Ashchev', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andri_Aganits', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andries_Bekker', 'http://dbpedia.org/resource/Andries_Noppert', 'http://dbpedia.org/resource/Andrija_Gerić', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Skuja', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Diachkov', 'http://dbpedia.org/resource/Andriy_Levchenko', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andriy_Semenov', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andrzej_Wrona', 'http://dbpedia.org/resource/Andy_Moore_(rugby_union,_born_1974)__Andy_Moore__1', 'http://dbpedia.org/resource/Andy_Murad', 'http://dbpedia.org/resource/Andy_Newman', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Reed_(rugby_union)', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Ángel_Montoro_(handballer)', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Angus_Blyth', 'http://dbpedia.org/resource/Angus_Graham_(footballer)', 'http://dbpedia.org/resource/Angus_MacAskill', 'http://dbpedia.org/resource/Anna_Maria_Marasi', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Anne-Kathrin_Schade', 'http://dbpedia.org/resource/Anosike_Ementa', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Antero_Paljakka', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Braun', 'http://dbpedia.org/resource/Anton_Johansson_(ice_hockey)', 'http://dbpedia.org/resource/Anton_Kuznetsov', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Shunto', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonin_Rouzier', 'http://dbpedia.org/resource/Antonio_Calebotta', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Peševski', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonios_Tsakiropoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Apostolos_Armenakis', 'http://dbpedia.org/resource/Arame_(singer)', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Arash_Kamalvand', 'http://dbpedia.org/resource/Aravind_Annadurai', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Archie_Smith_(footballer,_born_1995)', 'http://dbpedia.org/resource/Ardo_Kreek', 'http://dbpedia.org/resource/Aretha_Thurmond', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Argo_Meresaar', 'http://dbpedia.org/resource/Ari-Pekka_Liukkonen', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Ariel_Pietrasik', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arkadiusz_Gołaś', 'http://dbpedia.org/resource/Arkadiusz_Wrzosek', 'http://dbpedia.org/resource/Arkady_Vyatchanin', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Armi_Pärt', 'http://dbpedia.org/resource/Armin_Eichholz', 'http://dbpedia.org/resource/Arnar_Freyr_Arnarsson', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arno_Van_De_Velde', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Aron_Rafn_Eðvarðsson', 'http://dbpedia.org/resource/Árpád_Baróti', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Arshdeep_Dosanjh', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Smoliar', 'http://dbpedia.org/resource/Artem_Volvich', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Arthur_Szwarc', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artur_Ratajczak', 'http://dbpedia.org/resource/Artur_Szalpuk', 'http://dbpedia.org/resource/Artur_Udrys', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Asset_Bazarkulov', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Apostolov', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Athos_Costa', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Aubrey_Linne', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Hack', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hager', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Sjöberg__Axel_Sjöberg__1', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayce_Cordy', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/Azad_Al-Barazi', 'http://dbpedia.org/resource/Azat_Valiullin', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bahne_Rabe', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Bakhodir_Jalolov', 'http://dbpedia.org/resource/Bakkies_Botha', 'http://dbpedia.org/resource/Balázs_Hárai', 'http://dbpedia.org/resource/Balázs_Laluska', 'http://dbpedia.org/resource/Bálint_Lám', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović_(volleyball)', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bam_Neely', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Baptiste_Chouzenoux', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Barbara_De_Luca', 'http://dbpedia.org/resource/Barbara_Siciliano', 'http://dbpedia.org/resource/Bardia_Saadat', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barna_Putics', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barrie-Jon_Mather', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Barthélémy_Chinenyeze', 'http://dbpedia.org/resource/Bartłomiej_Bołądź', 'http://dbpedia.org/resource/Bartłomiej_Kluth', 'http://dbpedia.org/resource/Bartłomiej_Lemański', 'http://dbpedia.org/resource/Bartłomiej_Lipiński', 'http://dbpedia.org/resource/Bartosz_Bednorz', 'http://dbpedia.org/resource/Bartosz_Gawryszewski', 'http://dbpedia.org/resource/Bartosz_Kurek', 'http://dbpedia.org/resource/Bas_van_Bemmelen', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bastien_Chalureau', 'http://dbpedia.org/resource/Batuhan_Avcı', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beatrice_Bofia', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Beau_Graham', 'http://dbpedia.org/resource/Beau_McDonald', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Bishop', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(baske</t>
+          <t>['Hoboken, New Jersey, U.S.']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,21 +578,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Give me all cosmonauts.</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abdul_Ahad_Momand', 'http://dbpedia.org/resource/Abdulmohsen_Al-Bassam', 'http://dbpedia.org/resource/Aidyn_Aimbetov', 'http://dbpedia.org/resource/Akihiko_Hoshide', 'http://dbpedia.org/resource/Alan_Bean', 'http://dbpedia.org/resource/Alan_G._Poindexter', 'http://dbpedia.org/resource/Alan_Shepard', 'http://dbpedia.org/resource/Albert_H._Crews', 'http://dbpedia.org/resource/Albert_Sacco', 'http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Kaleri', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Lazutkin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Panayotov_Aleksandrov__Aleksandr_Panayotov_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov', 'http://dbpedia.org/resource/Aleksandr_Poleshchuk', 'http://dbpedia.org/resource/Aleksandr_Samokutyaev', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Skvortsov_(cosmonaut)', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Aleksey_Ovchinin', 'http://dbpedia.org/resource/Alexander_Gerst', 'http://dbpedia.org/resource/Alexander_Misurkin', 'http://dbpedia.org/resource/Alexei_Leonov', 'http://dbpedia.org/resource/Alfred_Worden', 'http://dbpedia.org/resource/Alvin_Drew', 'http://dbpedia.org/resource/Alvin_S._White', 'http://dbpedia.org/resource/Anatoly_Artsebarsky', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Ivanishin', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Anatoly_Solovyev', 'http://dbpedia.org/resource/Andre_Douglas', 'http://dbpedia.org/resource/André_Kuipers', 'http://dbpedia.org/resource/Andreas_Mogensen', 'http://dbpedia.org/resource/Andrei_Babkin', 'http://dbpedia.org/resource/Andrew_J._Feustel', 'http://dbpedia.org/resource/Andrew_M._Allen', 'http://dbpedia.org/resource/Andrew_R._Morgan', 'http://dbpedia.org/resource/Andrey_Borisenko', 'http://dbpedia.org/resource/Andrey_Fedyaev', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Andy_Thomas', 'http://dbpedia.org/resource/Anil_Menon_(astronaut_candidate)', 'http://dbpedia.org/resource/Anna_Kikina', 'http://dbpedia.org/resource/Anna_Lee_Fisher', 'http://dbpedia.org/resource/Anna_Menon', 'http://dbpedia.org/resource/Anne_McClain', 'http://dbpedia.org/resource/Anthony_Llewellyn', 'http://dbpedia.org/resource/Anthony_W._England', 'http://dbpedia.org/resource/Anton_Shkaplerov', 'http://dbpedia.org/resource/Apogee_of_Fear__no__1', 'http://dbpedia.org/resource/Arnaldo_Tamayo_Méndez', 'http://dbpedia.org/resource/Barbara_Morgan', 'http://dbpedia.org/resource/Barry_E._Wilmore', 'http://dbpedia.org/resource/Bernard_A._Harris_Jr.', 'http://dbpedia.org/resource/Bert_R._Bulkin', 'http://dbpedia.org/resource/Bertalan_Farkas', 'http://dbpedia.org/resource/Bill_Bridgeman', 'http://dbpedia.org/resource/Bjarni_Tryggvason', 'http://dbpedia.org/resource/Bob_Behnken', 'http://dbpedia.org/resource/Bonnie_J._Dunbar', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Morukov', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Brent_W._Jett_Jr.', 'http://dbpedia.org/resource/Brewster_H._Shaw', 'http://dbpedia.org/resource/Brian_Binnie', 'http://dbpedia.org/resource/Brian_Duffy_(astronaut)', "http://dbpedia.org/resource/Brian_O'Leary", 'http://dbpedia.org/resource/Bruce_E._Melnick', 'http://dbpedia.org/resource/Bruce_McCandless_II', 'http://dbpedia.org/resource/Bruce_Peterson', "http://dbpedia.org/resource/Bryan_D._O'Connor", 'http://dbpedia.org/resource/Buzz_Aldrin', 'http://dbpedia.org/resource/Byron_K._Lichtenberg', 'http://dbpedia.org/resource/C._Gordon_Fullerton', 'http://dbpedia.org/resource/Cai_Xuzhe', 'http://dbpedia.org/resource/Carl_E._Walz', 'http://dbpedia.org/resource/Carl_J._Meade', 'http://dbpedia.org/resource/Carlos_I._Noriega', 'http://dbpedia.org/resource/Catherine_Coleman', 'http://dbpedia.org/resource/Charles_Bassett', 'http://dbpedia.org/resource/Charles_Camarda', 'http://dbpedia.org/resource/Charles_D._Gemar', 'http://dbpedia.org/resource/Charles_D._Walker', 'http://dbpedia.org/resource/Charles_Duke', 'http://dbpedia.org/resource/Charles_E._Brady_Jr.', 'http://dbpedia.org/resource/Charles_Edward_Jones', 'http://dbpedia.org/resource/Charles_J._Precourt', 'http://dbpedia.org/resource/Charles_L._Veach', 'http://dbpedia.org/resource/Charles_O._Hobaugh', 'http://dbpedia.org/resource/Chen_Dong_(taikonaut)', 'http://dbpedia.org/resource/Chen_Quan', 'http://dbpedia.org/resource/Chiaki_Mukai', 'http://dbpedia.org/resource/Chino_Roque', 'http://dbpedia.org/resource/Chris_Hadfield', 'http://dbpedia.org/resource/Christa_McAuliffe', 'http://dbpedia.org/resource/Christer_Fuglesang', 'http://dbpedia.org/resource/Christina_Koch', 'http://dbpedia.org/resource/Christopher_Cassidy', 'http://dbpedia.org/resource/Christopher_Ferguson', 'http://dbpedia.org/resource/Christopher_Loria', 'http://dbpedia.org/resource/Christopher_Williams_(astronaut)', 'http://dbpedia.org/resource/Claude_Nicollier', 'http://dbpedia.org/resource/Claudie_Haigneré', 'http://dbpedia.org/resource/Clayton_Anderson', 'http://dbpedia.org/resource/Clifton_Williams', 'http://dbpedia.org/resource/Curt_Michel', 'http://dbpedia.org/resource/Curtis_Brown', 'http://dbpedia.org/resource/Dafydd_Williams', 'http://dbpedia.org/resource/Daisuke_Enomoto', 'http://dbpedia.org/resource/Dale_Gardner', 'http://dbpedia.org/resource/Daniel_Brandenstein', 'http://dbpedia.org/resource/Daniel_C._Burbank', 'http://dbpedia.org/resource/Daniel_M._Tani', 'http://dbpedia.org/resource/Daniel_T._Barry', 'http://dbpedia.org/resource/Daniel_W._Bursch', 'http://dbpedia.org/resource/David_C._Hilmers', 'http://dbpedia.org/resource/David_Leestma', 'http://dbpedia.org/resource/David_M._Brown', 'http://dbpedia.org/resource/David_M._Walker_(astronaut)', 'http://dbpedia.org/resource/David_Mackay_(pilot)', 'http://dbpedia.org/resource/David_Saint-Jacques', 'http://dbpedia.org/resource/David_Scott', 'http://dbpedia.org/resource/David_Wolf_(astronaut)', 'http://dbpedia.org/resource/Deke_Slayton', 'http://dbpedia.org/resource/Deng_Qingming', 'http://dbpedia.org/resource/Denis_Matveev', 'http://dbpedia.org/resource/Deniz_Burnham', 'http://dbpedia.org/resource/Dennis_Tito', 'http://dbpedia.org/resource/Dick_Scobee', 'http://dbpedia.org/resource/Dirk_Frimout', 'http://dbpedia.org/resource/Dmitri_Kondratyev', 'http://dbpedia.org/resource/Dmitry_Petelin', 'http://dbpedia.org/resource/Dominic_A._Antonelli', 'http://dbpedia.org/resource/Dominic_L._Pudwill_Gorie', 'http://dbpedia.org/resource/Don_Lind', 'http://dbpedia.org/resource/Donald_A._Thomas', 'http://dbpedia.org/resource/Donald_E._Williams', 'http://dbpedia.org/resource/Donald_H._Peterson', 'http://dbpedia.org/resource/Donald_Holmquest', 'http://dbpedia.org/resource/Donald_L._Mallick', 'http://dbpedia.org/resource/Donald_Pettit', 'http://dbpedia.org/resource/Donald_R._McMonagle', 'http://dbpedia.org/resource/Donn_F._Eisele', 'http://dbpedia.org/resource/Dorothy_Metcalf-Lindenburger', 'http://dbpedia.org/resource/Doug_Hurley', 'http://dbpedia.org/resource/Doug_Shane', 'http://dbpedia.org/resource/Duane_G._Carey', 'http://dbpedia.org/resource/Duane_Graveline', 'http://dbpedia.org/resource/Dumitru_Prunariu', 'http://dbpedia.org/resource/Eberhard_Köllner', 'http://dbpedia.org/resource/Ed_Lu', 'http://dbpedia.org/resource/Ed_White_(astronaut)', 'http://dbpedia.org/resource/Edgar_Mitchell', 'http://dbpedia.org/resource/Edward_Gibson', 'http://dbpedia.org/resource/Edward_Givens', 'http://dbpedia.org/resource/Edward_Makuka_Nkoloso', 'http://dbpedia.org/resource/Eileen_Collins', 'http://dbpedia.org/resource/Ellen_Ochoa', 'http://dbpedia.org/resource/Ellen_S._Baker', 'http://dbpedia.org/resource/Elliot_See', 'http://dbpedia.org/resource/Ellison_Onizuka', 'http://dbpedia.org/resource/Eric_Boe', 'http://dbpedia.org/resource/Ernst_Messerschmid', 'http://dbpedia.org/resource/Eugene_H._Trinh', 'http://dbpedia.org/resource/Eytan_Stibbe', 'http://dbpedia.org/resource/F._Drew_Gaffney', 'http://dbpedia.org/resource/Faiz_Khaleed', 'http://dbpedia.org/resource/Fei_Junlong', 'http://dbpedia.org/resource/Fernando_Caldeiro', 'http://dbpedia.org/resource/Francis_G._Neubeck', 'http://dbpedia.org/resource/Francisco_Rubio_(astronaut)', 'http://dbpedia.org/resource/Frank_Borman', 'http://dbpedia.org/resource/Frank_De_Winne', 'http://dbpedia.org/resource/Frank_L._Culbertson_Jr.', 'http://dbpedia.org/resource/Franklin_Chang-Díaz', 'http://dbpedia.org/resource/Franz_Viehböck', 'http://dbpedia.org/resource/Fred_Haise__Fred_W._Haise_Jr.__1', 'http://dbpedia.org/resource/Frederick_D._Gregory', 'http://dbpedia.org/resource/Frederick_Hauck', 'http://dbpedia.org/resource/Frederick_W._Leslie', 'http://dbpedia.org/resource/Frederick_W._Sturckow', 'http://dbpedia.org/resource/Fyodor_Yurchikhin', 'http://dbpedia.org/resource/G._David_Low', 'http://dbpedia.org/resource/Garrett_Reisman', 'http://dbpedia.org/resource/Gary_Payton_(astronaut)', 'http://dbpedia.org/resource/Gene_Cernan', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Padalka', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/George_D._Zamka', 'http://dbpedia.org/resource/George_Nelson_(astronaut)', 'http://dbpedia.org/resource/Georgi_Ivanov_(cosmonaut)', 'http://dbpedia.org/resource/Georgy_Beregovoy', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Georgy_Shonin', 'http://dbpedia.org/resource/Gerald_Carr_(astronaut)', 'http://dbpedia.org/resource/Gerhard_Thiele', 'http://dbpedia.org/resource/Gherman_Titov', 'http://dbpedia.org/resource/Gordon_Cooper', 'http://dbpedia.org/resource/Gregory_C._Johnson', 'http://dbpedia.org/resource/Gregory_Chamitoff', 'http://dbpedia.org/resource/Gregory_H._Johnson', 'http://dbpedia.org/resource/Gregory_J._Harbaugh', 'http://dbpedia.org/resource/Gregory_Jarvis', 'http://dbpedia.org/resource/Gregory_Olsen', 'http://dbpedia.org/resource/Gregory_R._Wiseman', 'http://dbpedia.org/resource/Gregory_T._Linteris', 'http://dbpedia.org/resource/Grigory_Nelyubov', 'http://dbpedia.org/resource/Guion_Bluford', 'http://dbpedia.org/resource/Gus_Grissom', 'http://dbpedia.org/resource/Guy_Gardner_(astronaut)', 'http://dbpedia.org/resource/Hans_Schlegel', 'http://dbpedia.org/resource/Hazza_Al_Mansouri', 'http://dbpedia.org/resource/Heidemarie_Stefanyshyn-Piper', 'http://dbpedia.org/resource/Helen_Sharman', 'http://dbpedia.org/resource/Henry_Charles_Gordon', 'http://dbpedia.org/resource/Henry_Hartsfield', 'http://dbpedia.org/resource/Hermes_(spacecraft)', 'http://dbpedia.org/resource/Ilan_Ramon', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Ivan_Bella', 'http://dbpedia.org/resource/Ivan_Vagner', 'http://dbpedia.org/resource/Jack_D._Fischer', 'http://dbpedia.org/resource/Jack_Hathaway', 'http://dbpedia.org/resource/Jack_R._Lousma', 'http://dbpedia.org/resource/James_A._Pawelczyk', 'http://dbpedia.org/resource/James_Buchli', 'http://dbpedia.org/resource/James_C._Adamson', 'http://dbpedia.org/resource/James_D._Halsell', 'http://dbpedia.org/resource/James_Dutton_(astronaut)', 'http://dbpedia.org/resource/James_H._Newman', 'http://dbpedia.org/resource/James_Irwin', 'http://dbpedia.org/resource/James_M._Kelly_(astronaut)', 'http://dbpedia.org/resource/James_M._Taylor', 'http://dbpedia.org/resource/James_McDivitt', 'http://dbpedia.org/resource/James_P._Bagian', 'http://dbpedia.org/resource/James_S._Voss', 'http://dbpedia.org/resource/James_van_Hoften', 'http://dbpedia.org/resource/James_W._Wood', 'http://dbpedia.org/resource/Jan_Davis', 'http://dbpedia.org/resource/Janet_L._Kavandi', 'http://dbpedia.org/resource/Janice_E._Voss', 'http://dbpedia.org/resource/Jasmin_Moghbeli', 'http://dbpedia.org/resource/Jay_C._Buckey', 'http://dbpedia.org/resource/Jean-François_Clervoy', 'http://dbpedia.org/resource/Jean-Jacques_Favier', 'http://dbpedia.org/resource/Jean-Loup_Chrétien', 'http://dbpedia.org/resource/Jean-Pierre_Haigneré', 'http://dbpedia.org/resource/Jeanette_Epps', 'http://dbpedia.org/resource/Jeffrey_A._Hoffman', 'http://dbpedia.org/resource/Jeffrey_Ashby', 'http://dbpedia.org/resource/Jeffrey_Williams_(astronaut)', 'http://dbpedia.org/resource/Jenni_Sidey-Gibbons', 'http://dbpedia.org/resource/Jeremy_Hansen', 'http://dbpedia.org/resource/Jerome_Apt', 'http://dbpedia.org/resource/Jerry_L._Ross', 'http://dbpedia.org/resource/Jerry_M._Linenger', 'http://dbpedia.org/resource/Jessica_Meir', 'http://dbpedia.org/resource/Jessica_Watkins__Jessica_Watkins__1', 'http://dbpedia.org/resource/Jessica_Wittner', 'http://dbpedia.org/resource/Jim_Lovell', 'http://dbpedia.org/resource/Jim_Wetherbee', 'http://dbpedia.org/resource/Jing_Haipeng', 'http://dbpedia.org/resource/Joan_Higginbotham', 'http://dbpedia.org/resource/Joe_Engle', 'http://dbpedia.org/resource/Joe_F._Edwards_Jr.', 'http://dbpedia.org/resource/John_B._McKay', 'http://dbpedia.org/resource/John_Casper__John_H._Casper__1', 'http://dbpedia.org/resource/John_Casper', 'http://dbpedia.org/resource/John_D._Olivas', 'http://dbpedia.org/resource/John_E._Blaha', 'http://dbpedia.org/resource/John_Herrington', 'http://dbpedia.org/resource/John_L._Finley', 'http://dbpedia.org/resource/John_L._Phillips', 'http://dbpedia.org/resource/John_M._Fabian', 'http://dbpedia.org/resource/John_M._Grunsfeld', 'http://dbpedia.org/resource/John_M._Lounge', 'http://dbpedia.org/resource/John_Oliver_Creighton', 'http://dbpedia.org/resource/John_S._Bull', 'http://dbpedia.org/resource/John_Young_(astronaut)', 'http://dbpedia.org/resource/John-David_F._Bartoe', 'http://dbpedia.org/resource/Jon_McBride', 'http://dbpedia.org/resource/José_M._Hernández', 'http://dbpedia.org/resource/Joseph_A._Walker', 'http://dbpedia.org/resource/Joseph_M._Acaba', 'http://dbpedia.org/resource/Joseph_P._Allen', 'http://dbpedia.org/resource/Joseph_P._Kerwin', 'http://dbpedia.org/resource/Joseph_R._Tanner', 'http://dbpedia.org/resource/Josh_A._Cassada', 'http://dbpedia.org/resource/Joshua_Kutryk', 'http://dbpedia.org/resource/Judith_Resnik', 'http://dbpedia.org/resource/K._Megan_McArthur', 'http://dbpedia.org/resource/Kalpana_Chawla', 'http://dbpedia.org/resource/Karen_Nyberg', 'http://dbpedia.org/resource/Karl_Gordon_Henize', 'http://dbpedia.org/resource/Karol_J._Bobko', 'http://dbpedia.org/resource/Kathleen_Rubins', 'http://dbpedia.org/resource/Kathryn_C._Thornton', 'http://dbpedia.org/resource/Kathryn_D._Sullivan', 'http://dbpedia.org/resource/Kathryn_P._Hire', 'http://dbpedia.org/resource/Kayla_Barron', 'http://dbpedia.org/resource/Ken_Bowersox', 'http://dbpedia.org/resource/Ken_Mattingly', 'http://dbpedia.org/resource/Ken_Money', 'http://dbpedia.org/resource/Kenneth_Cockrell', 'http://dbpedia.org/resource/Kenneth_D._Cameron', 'http://dbpedia.org/resource/Kenneth_Ham', 'http://dbpedia.org/resource/Kenneth_S._Reightler_Jr.', 'http://dbpedia.org/resource/Kent_Rominger', 'http://dbpedia.org/resource/Kevin_A._Ford', 'http://dbpedia.org/resource/Kevin_P._Chilton', 'http://dbpedia.org/resource/Kevin_R._Kregel', 'http://dbpedia.org/resource/Kimiya_Yui', 'http://dbpedia.org/resource/Kjell_N._Lindgren', 'http://dbpedia.org/resource/Klaus_von_Storch', 'http://dbpedia.org/resource/Klaus-Dietrich_Flade', 'http://dbpedia.org/resource/Ko_San', 'http://dbpedia.org/resource/Koichi_Wakata', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Konstantin_Kozeyev', 'http://dbpedia.org/resource/Konstantin_Valkov', 'http://dbpedia.org/resource/L._Blaine_Hammond', 'http://dbpedia.org/resource/Lachlan_Macleay', 'http://dbpedia.org/resource/Larry_Connor', 'http://dbpedia.org/resource/Laurel_Clark', 'http://dbpedia.org/resource/Lawrence_J._DeLucas', 'http://dbpedia.org/resource/Lee_Archambault', 'http://dbpedia.org/resource/Lee_Morin', 'http://dbpedia.org/resource/Leland_D._Melvin', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kadeniuk', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Léopold_Eyharts', 'http://dbpedia.org/resource/Leroy_Chiao', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Li_Qinglong', 'http://dbpedia.org/resource/Linda_M._Godwin', 'http://dbpedia.org/resource/Lisa_Nowak', 'http://dbpedia.org/resource/Liu_Boming_(taikonaut)', 'http://dbpedia.org/resource/Liu_Wang', 'http://dbpedia.org/resource/Liu_Yang_(taikonaut)', 'http://dbpedia.org/resource/Livingston_L._Holder_Jr.', 'http://dbpedia.org/resource/Lodewijk_van_den_Berg', "http://dbpedia.org/resource/Loral_O'Hara", 'http://dbpedia.org/resource/Loren_Acton', 'http://dbpedia.org/resource/Loren_Shriver', 'http://dbpedia.org/resource/Luca_Parmitano', 'http://dbpedia.org/resource/Luca_Urbani', 'http://dbpedia.org/resource/Luke_Delaney_(astronaut)', 'http://dbpedia.org/resource/Madhulika_Guhathakurta', 'http://dbpedia.org/resource/Mae_Jemison', 'http://dbpedia.org/resource/Maidarjavyn_Ganzorig', 'http://dbpedia.org/resource/Maksim_Ponomaryov', 'http://dbpedia.org/resource/Maksim_Surayev', 'http://dbpedia.org/resource/Mamoru_Mohri', 'http://dbpedia.org/resource/Marcos_Berríos', 'http://dbpedia.org/resource/Marianne_Merchez', 'http://dbpedia.org/resource/Mario_Runco_Jr.', 'http://dbpedia.org/resource/Marion_Dietrich', 'http://dbpedia.org/resource/Mark_C._Lee', 'http://dbpedia.org/resource/Mark_Kelly', 'http://dbpedia.org/resource/Mark_L._Polansky', 'http://dbpedia.org/resource/Mark_N._Brown', 'http://dbpedia.org/resource/Mark_P._Stucky', 'http://dbpedia.org/resource/Mark_Pathy', 'http://dbpedia.org/resource/Mark_Serov', 'http://dbpedia.org/resource/Mark_T._Vande_Hei', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Marsha_Ivins', 'http://dbpedia.org/resource/Martin_J._Fettman', 'http://dbpedia.org/resource/Mary_Ellen_Weber', 'http://dbpedia.org/resource/Mary_Helen_Johnston', 'http://dbpedia.org/resource/Mary_L._Cleave', 'http://dbpedia.org/resource/Matthew_Dominick', 'http://dbpedia.org/resource/Matthias_Maurer', 'http://dbpedia.org/resource/Maurizio_Cheli', 'http://dbpedia.org/resource/Michael_A._Baker', 'http://dbpedia.org/resource/Michael_Alsbury', 'http://dbpedia.org/resource/Michael_Barratt_(astronaut)', 'http://dbpedia.org/resource/Michael_Coats', 'http://dbpedia.org/resource/Michael_Collins_(astronaut)', 'http://dbpedia.org/resource/Michael_E._Fossum', 'http://dbpedia.org/resource/Michael_Fincke', 'http://dbpedia.org/resource/Michael_Foale', 'http://dbpedia.org/resource/Michael_Foreman_(astronaut)', 'http://dbpedia.org/resource/Michael_J._Adams', 'http://dbpedia.org/resource/Michael_J._Bloomfield', 'http://dbpedia.org/resource/Michael_J._McCulley', 'http://dbpedia.org/resource/Michael_J._Smith', 'http://dbpedia.org/resource/Michael_L._Gernhardt', 'http://dbpedia.org/resource/Michael_Lampton', 'http://dbpedia.org/resource/Michael_López-Alegría', 'http://dbpedia.org/resource/Michael_López-Alegría', 'http://dbpedia.org/resource/Michael_P._Anderson', 'http://dbpedia.org/resource/Michael_R._Clifford', 'http://dbpedia.org/resource/Michael_S._Hopkins', 'http://dbpedia.org/resource/Michael_T._Good', 'http://dbpedia.org/resource/Michel_Tognini', 'http://dbpedia.org/resource/Mike_Massimino', 'http://dbpedia.org/resource/Mike_Melvill', 'http://dbpedia.org/resource/Mike_Mullane', 'http://dbpedia.org/resource/Mikhail_Kornienko', 'http://dbpedia.org/resource/Mikhail_Tyurin', 'http://dbpedia.org/resource/Millie_Hughes-Fulford', 'http://dbpedia.org/resource/Milton_Orville_Thompson', 'http://dbpedia.org/resource/Mirosław_Hermaszewski', 'http://dbpedia.org/resource/Miss_Baker', 'http://dbpedia.org/resource/Mohammad_Al_Mulla', 'http://dbpedia.org/resource/Muhammed_Faris', 'http://dbpedia.org/resource/Musa_Manarov', 'http://dbpedia.org/resource/Nadezhda_Kuzhelnaya', 'http://dbpedia.org/resource/Nancy_J._Currie-Gregg', 'http://dbpedia.org/resource/Naoko_Yamazaki__Naoko_Yamazaki__1', 'http://dbpedia.org/resource/Naoko_Yamazaki', 'http://dbpedia.org/resource/Neil_Armstrong', 'http://dbpedia.org/resource/Neil_Woodward', 'http://dbpedia.org/resource/Nicholas_Patrick', 'http://dbpedia.org/resource/Nichole_Ayers', 'http://dbpedia.org/resource/Nick_Hague', 'http://dbpedia.org/resource/Nicole_Aunapu_Mann', 'http://dbpedia.org/resource/Nicole_Stott', 'http://dbpedia.org/resource/Nie_Haisheng', 'http://dbpedia.org/resource/Nikolai_Budarin', 'http://dbpedia.org/resource/Nikolai_Chub', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Nikolai_Tikhonov_(cosmonaut)', 'http://dbpedia.org/resource/Nora_Al_Matrooshi', 'http://dbpedia.org/resource/Norishige_Kanai', 'http://dbpedia.org/resource/Norman_Thagard', 'http://dbpedia.org/resource/Oldřich_Pelčák', 'http://dbpedia.org/resource/Oleg_Artemyev', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Blinov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Kononenko', 'http://dbpedia.org/resource/Oleg_Kotov', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Oleg_Novitsky', 'http://dbpedia.org/resource/Oleg_Skripochka', 'http://dbpedia.org/resource/Owen_Garriott', 'http://dbpedia.org/resource/Owen_K._Garriott', 'http://dbpedia.org/resource/Paolo_Nespoli', 'http://dbpedia.org/resource/Parimal_Kopardekar', 'http://dbpedia.org/resource/Patricia_Robertson', 'http://dbpedia.org/resource/Patrick_Baudry', 'http://dbpedia.org/resource/Patrick_G._Forrester', 'http://dbpedia.org/resource/Paul_J._Weitz', 'http://dbpedia.org/resource/Paul_Lockhart', 'http://dbpedia.org/resource/Paul_Scully-Power', 'http://dbpedia.org/resource/Paul_W._Richards', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Pavel_Popovich', 'http://dbpedia.org/resource/Pavel_Vinogradov', 'http://dbpedia.org/resource/Peggy_Whitson', 'http://dbpedia.org/resource/Pete_Conrad', 'http://dbpedia.org/resource/Peter_Siebold', 'http://dbpedia.org/resource/Peter_Wisoff', 'http://dbpedia.org/resource/Phạm_Tuân', 'http://dbpedia.org/resource/Philip_K._Chapman', 'http://dbpedia.org/resource/Philippe_Perrin', 'http://dbpedia.org/resource/Pierre_J._Thuot', 'http://dbpedia.org/resource/Piers_Sellers', 'http://dbpedia.org/resource/Pratiwi_Sudarmono', 'http://dbpedia.org/resource/Pyotr_Dubrov', 'http://dbpedia.org/resource/Pyotr_Klimuk', 'http://dbpedia.org/resource/Pyotr_Kolodin', 'http://dbpedia.org/resource/Raja_Chari', 'http://dbpedia.org/resource/Rakesh_Sharma', 'http://dbpedia.org/resource/Randolph_Bresnik', 'http://dbpedia.org/resource/Ravish_Malhotra', 'http://dbpedia.org/resource/Reinhard_Furrer', 'http://dbpedia.org/resource/Reinhold_Ewald', 'http://dbpedia.org/resource/Renate_Brümmer', 'http://dbpedia.org/resource/Return_from_Orbit__no__1', 'http://dbpedia.org/resource/Rex_J._Walheim', 'http://dbpedia.org/resource/Rhea_Seddon', 'http://dbpedia.org/resource/Richard_A._Searfoss', 'http://dbpedia.org/resource/Richard_E._Lawyer', 'http://dbpedia.org/resource/Richard_F._Gordon_Jr.', 'http://dbpedia.org/resource/Richard_Farrimond', 'http://dbpedia.org/resource/Richard_Hieb', 'http://dbpedia.org/resource/Richard_M._Linnehan', 'http://dbpedia.org/resource/Richard_Mastracchio', 'http://dbpedia.org/resource/Richard_N._Richards', 'http://dbpedia.org/resource/Richard_O._Covey', 'http://dbpedia.org/resource/Richard_R._Arnold', 'http://dbpedia.org/resource/Rick_Husband', 'http://dbpedia.org/resource/Robb_Kulin', 'http://dbpedia.org/resource/Robert_A._Parker', 'http://dbpedia.org/resource/Robert_A._Rushworth', 'http://dbpedia.org/resource/Robert_C._Springer', 'http://dbpedia.org/resource/Robert_Crippen', 'http://dbpedia.org/resource/Robert_Curbeam', 'http://dbpedia.org/resource/Robert_D._Cabana', 'http://dbpedia.org/resource/Robert_F._Overmyer', 'http://dbpedia.org/resource/Robert_Henry_Lawrence_Jr.', 'http://dbpedia.org/resource/Robert_Hines_(astronaut)', 'http://dbpedia.org/resource/Robert_J._Cenker', 'http://dbpedia.org/resource/Robert_L._Gibson', 'http://dbpedia.org/resource/Robert_L._Stewart', 'http://dbpedia.org/resource/Robert_Michael_White', 'http://dbpedia.org/resource/Robert_Satcher', 'http://dbpedia.org/resource/Robert_Thirsk', 'http://dbpedia.org/resource/Roberta_Bondar', 'http://dbpedia.org/resource/Roberto_Vittori', 'http://dbpedia.org/resource/Rodolfo_Neri_Vela', 'http://dbpedia.org/resource/Roger_B._Chaffee', 'http://dbpedia.org/resource/Roger_K._Crouch', 'http://dbpedia.org/resource/Roger_Kanet', 'http://dbpedia.org/resource/Roman_Romanenko', 'http://dbpedia.org/resource/Ronald_Evans_(astronaut)', 'http://dbpedia.org/resource/Ronald_J._Garan_Jr.', 'http://dbpedia.org/resource/Ronald_J._Grabe', 'http://dbpedia.org/resource/Ronald_M._Sega', 'http://dbpedia.org/resource/Ronald_McNair', 'http://dbpedia.org/resource/Ronald_Parise', 'http://dbpedia.org/resource/Russell_L._Rogers', 'http://dbpedia.org/resource/Rusty_Schweickart', 'http://dbpedia.org/resource/S._David_Griggs', 'http://dbpedia.org/resource/Salizhan_Sharipov', 'http://dbpedia.org/resource/Salizhan_Sharipov', 'http://dbpedia.org/resource/Salizhan_Sharipov', 'http://dbpedia.org/resource/Samantha_Cristoforetti', 'http://dbpedia.org/resource/Samuel_T._Durrance', 'http://dbpedia.org/resource/Sandra_Magnus', 'http://dbpedia.org/resource/Sarah_Gillis', 'http://dbpedia.org/resource/Satoshi_Furukawa', 'http://dbpedia.org/resource/Scott_Altman', 'http://dbpedia.org/resource/Scott_Carpenter', 'http://dbpedia.org/resource/Scott_D._Tingle', 'http://dbpedia.org/resource/Scott_E._Parazynski', 'http://dbpedia.org/resource/Scott_J._Horowitz', 'http://dbpedia.org/resource/Scott_Poteet', 'http://dbpedia.org/resource/Serena_Auñón-Chancellor', 'http://dbpedia.org/resource/Sergei_Krikalev', 'http://dbpedia.org/resource/Sergey_Avdeev', 'http://dbpedia.org/resource/Sergey_Korsakov_(cosmonaut)__Sergey_Vladimirovich_Korsakov__1', 'http://dbpedia.org/resource/Sergey_Kud-Sverchkov', 'http://dbpedia.org/resource/Sergey_Moshchenko', 'http://dbpedia.org/resource/Sergey_Prokopyev_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Revin', 'http://dbpedia.org/resource/Sergey_Ryazansky', 'http://dbpedia.org/resource/Sergey_Ryzhikov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Treshchov', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Sergey_Zalyotin', 'http://dbpedia.org/resource/Sergey_Zhukov_(cosmonaut)', 'http://dbpedia.org/resource/Shane_Kimbrough', 'http://dbpedia.org/resource/Shannon_Lucid', 'http://dbpedia.org/resource/Shannon_Walker', 'http://dbpedia.org/resource/Sheikh_Muszaphar_Shukor', 'http://dbpedia.org/resource/Sherwood_C._Spring', 'http://dbpedia.org/resource/Sidney_M._Gutierrez', 'http://dbpedia.org/resource/Sigmund_Jähn', 'http://dbpedia.org/resource/Sirisha_Bandla', 'http://dbpedia.org/resource/Soichi_Noguchi', 'http://dbpedia.org/resource/Stanley_G._Love', 'http://dbpedia.org/resource/Stephanie_Wilson', 'http://dbpedia.org/resource/Stephen_Bowen_(astronaut)', 'http://dbpedia.org/resource/Stephen_Frick', 'http://dbpedia.org/resource/Stephen_Robinson', 'http://dbpedia.org/resource/Stephen_S._Oswald', 'http://dbpedia.org/resource/Stephen_Thorne_(astronaut)', 'http://dbpedia.org/resource/Steve_MacLean_(astronaut)', 'http://dbpedia.org/resource/Steven_Hawley', 'http://dbpedia.org/resource/Steven_Lindsey', 'http://dbpedia.org/resource/Steven_R._Nagel', 'http://dbpedia.org/resource/Steven_Smith_(astronaut)', 'http://dbpedia.org/resource/Steven_Swanson', 'http://dbpedia.org/resource/Story_Musgrave', 'http://dbpedia.org/resource/Stuart_Roosa', 'http://dbpedia.org/resource/Sultan_Al_Neyadi', 'http://dbpedia.org/resource/Sunita_Williams', 'http://dbpedia.org/resource/Susan_Helms', 'http://dbpedia.org/resource/Susan_Kilrain', 'http://dbpedia.org/resource/Svetlana_Savitskaya', 'http://dbpedia.org/resource/Svetlana_Savitskaya', 'http://dbpedia.org/resource/Takao_Doi__Takao_Doi__1', 'http://dbpedia.org/resource/Takao_Doi', 'http://dbpedia.org/resource/Takuya_Onishi', 'http://dbpedia.org/resource/Talgat_Musabayev', 'http://dbpedia.org/resource/Tamara_E._Jernigan', 'http://dbpedia.org/resource/Tang_Hongbo', 'http://dbpedia.org/resource/Tao_Jiali', 'http://dbpedia.org/resource/Taylor_Wang', 'http://dbpedia.org/resource/Terence_T._Henricks', 'http://dbpedia.org/resource/Terrence_W._Wilcutt', 'http://dbpedia.org/resource/Terry_Hart', 'http://dbpedia.org/resource/Terry_W._Virts', 'http://dbpedia.org/resource/The_Challenge_(2023_film)__yes__1', 'http://dbpedia.org/resource/Theodore_Freeman', 'http://dbpedia.org/resource/Thomas_Akers', 'http://dbpedia.org/resource/Thomas_David_Jones', 'http://dbpedia.org/resource/Thomas_J._Hennen', 'http://dbpedia.org/resource/Thomas_Marshburn', 'http://dbpedia.org/resource/Thomas_P._Stafford', 'http://dbpedia.org/resource/Thomas_Pesquet', 'http://dbpedia.org/resource/Thomas_Reiter', 'http://dbpedia.org/resource/Tim_Peake', 'http://dbpedia.org/resource/Timothy_Creamer', 'http://dbpedia.org/resource/Timothy_Kopra', 'http://dbpedia.org/resource/Toktar_Aubakirov', 'http://dbpedia.org/resource/Toyohiro_Akiyama', 'http://dbpedia.org/resource/Tracy_Caldwell_Dyson', 'http://dbpedia.org/resource/Ulf_Merbold', 'http://dbpedia.org/resource/Ulrich_Walter', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valentin_Varlamov', 'http://dbpedia.org/resource/Valentina_Ponomaryova', 'http://dbpedia.org/resource/Valeri_Polyakov', 'http://dbpedia.org/resource/Valeri_Tokarev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Korzun', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vance_D._Brand', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Vasily_Tsibliyev', 'http://dbpedia.org/resource/Victor_J._Glover', 'http://dbpedia.org/resource/Viktor_Afanasyev_(cosmonaut)', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vitaly_Zholobov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dezhurov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Georgiyevich_Titov', 'http://dbpedia.org/resource/Vladimir_Komarov', 'http://dbpedia.org/resource/Vladimir_Kovalyonok', 'http://dbpedia.org/resource/Vladimir_Lyakhov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Wally_Schirra', 'http://dbpedia.org/resource/Walter_Cunningham', 'http://dbpedia.org/resource/Wang_Yaping', 'http://dbpedia.org/resource/Warren_Hoburg', 'http://dbpedia.org/resource/Wendy_B._Lawrence', 'http://dbpedia.org/resource/William_A._Pailes', 'http://dbpedia.org/resource/William_Anders', 'http://dbpedia.org/resource/William_B._Lenoir', 'http://dbpedia.org/resource/William_C._McCool', 'http://dbpedia.org/resource/William_E._Thornton', 'http://dbpedia.org/resource/William_F._Readdy', 'http://dbpedia.org/resource/William_Frederick_Fisher', 'http://dbpedia.org/resource/William_G._Gregory', 'http://dbpedia.org/resource/William_H._Dana', 'http://dbpedia.org/resource/William_Oefelein', 'http://dbpedia.org/resource/William_Pogue', 'http://dbpedia.org/resource/William_S._McArthur', 'http://dbpedia.org/resource/William_Shepherd', 'http:/</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>How many programming languages are there?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['1325']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['1325']</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
